--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1362672.921621285</v>
+        <v>-1365312.268939307</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>110.8476614384643</v>
       </c>
       <c r="H2" t="n">
-        <v>48.52529342553986</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>167.4528847450958</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>170.9867228372062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.6168578776743</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.4048619988981</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>7.537656044413952</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>8.957397012179815</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>49.71101845020849</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>19.68942351146622</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>135.9120781262769</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.7058776187874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>123.8408918261619</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>92.20984583428664</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>95.57362600055686</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>104.1233804225859</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>63.841556412593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>65.99480013030499</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>35.99871774582724</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428303</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>129.2171928962052</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710104</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.2811815126420993</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428296</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>223.623358134394</v>
+        <v>143.2091541404069</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652565</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308926</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
         <v>124.3308255261727</v>
@@ -4144,16 +4144,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>827.4904500197511</v>
+        <v>533.6469145208721</v>
       </c>
       <c r="C2" t="n">
-        <v>458.5279330793393</v>
+        <v>533.6469145208721</v>
       </c>
       <c r="D2" t="n">
-        <v>100.2622344725888</v>
+        <v>533.6469145208721</v>
       </c>
       <c r="E2" t="n">
-        <v>100.2622344725888</v>
+        <v>533.6469145208721</v>
       </c>
       <c r="F2" t="n">
-        <v>100.2622344725888</v>
+        <v>533.6469145208721</v>
       </c>
       <c r="G2" t="n">
-        <v>100.2622344725888</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2268.495792901276</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2014.914732165456</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1683.851844821885</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1683.851844821885</v>
       </c>
       <c r="X2" t="n">
-        <v>1604.229622059685</v>
+        <v>1310.386086560806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1214.090290083873</v>
+        <v>920.2467545849938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908473</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.841548125043</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C4" t="n">
-        <v>644.9053651971361</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1463.732258622774</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1209.047770416887</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="X4" t="n">
-        <v>1109.244414851923</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y4" t="n">
-        <v>995.4900129552827</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1653.287154902436</v>
+        <v>862.4791652013128</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>493.516648260901</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>493.516648260901</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2430.026326942369</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U5" t="n">
-        <v>2430.026326942369</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="V5" t="n">
-        <v>2430.026326942369</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="W5" t="n">
-        <v>2430.026326942369</v>
+        <v>1622.544763526514</v>
       </c>
       <c r="X5" t="n">
-        <v>2430.026326942369</v>
+        <v>1249.079005265434</v>
       </c>
       <c r="Y5" t="n">
-        <v>2039.886994966557</v>
+        <v>1249.079005265434</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7770143030104</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1105.207609174798</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1105.207609174798</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W7" t="n">
-        <v>1105.207609174798</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="X7" t="n">
-        <v>877.2180582767803</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.4254791332502</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3078.030225735987</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2746.967338392416</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2746.967338392416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131336</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>798.5065461617548</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="C10" t="n">
-        <v>629.570363233848</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>1298.919781316957</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.426274415171</v>
+        <v>1009.502611279996</v>
       </c>
       <c r="X10" t="n">
-        <v>1161.426274415171</v>
+        <v>1009.502611279996</v>
       </c>
       <c r="Y10" t="n">
-        <v>940.6336952716412</v>
+        <v>788.7100321364661</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5279,49 +5279,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>878.3568999154051</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978459</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782944</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003833</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855602</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.2406881998</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993913</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1099.149479058935</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>878.3568999154051</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.2677182139842</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>530.3315352860773</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2382.47666296148</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2162.875197984421</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1873.799971328619</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1619.115483122732</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1329.698313085771</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.708762187754</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>880.9161830442239</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1018.438627038651</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>849.5024441107445</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>699.3858046984087</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>551.4727111160156</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1648.869221910438</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1420.879671012421</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1200.087091868891</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075805</v>
@@ -5996,43 +5996,43 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745243</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468419</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963487</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.58765433837</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121657</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121657</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121657</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121657</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270456</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2066.540128420693</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1777.464901764891</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1522.780413559004</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1233.363243522043</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797194</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797194</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745243</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468419</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963487</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.58765433837</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400726</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121657</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121657</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121657</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270456</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561186</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138424</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703123</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797191</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438164</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998423</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991043</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.578900576778</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.894412370891</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W31" t="n">
-        <v>1496.894412370891</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X31" t="n">
-        <v>1268.904861472874</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y31" t="n">
-        <v>1048.112282329344</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797191</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.195150674524</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6883,16 +6883,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,25 +7160,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192474</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656816</v>
@@ -7321,7 +7321,7 @@
         <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,22 +7345,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589494</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>114.3555089013348</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>265.0304328515148</v>
+        <v>319.418382128244</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>295.469531473108</v>
+        <v>300.7000413344896</v>
       </c>
       <c r="H2" t="n">
-        <v>252.4932591368655</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>194.3131525023044</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71.67319509807098</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>42.31058222398326</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229358</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>117.1847295890516</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>79.42624789262625</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194083</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>88.18825743108309</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219409</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24889,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>62.56111625485016</v>
+        <v>142.9753202488372</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154575</v>
+        <v>135401.7127154574</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
         <v>161429.3199380012</v>
@@ -26344,10 +26344,10 @@
         <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="N2" t="n">
         <v>164208.3539728568</v>
-      </c>
-      <c r="N2" t="n">
-        <v>164208.3539728569</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728568</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182251</v>
+        <v>67721.68800182267</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54516.86175496498</v>
+        <v>54516.86175496502</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26433,25 +26433,25 @@
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756573</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756459</v>
+        <v>9337.200356756612</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756533</v>
+        <v>9337.20035675663</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985</v>
+        <v>17328.05961985007</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985004</v>
+        <v>17328.05961985007</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985002</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985005</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26491,10 +26491,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>103164.1158539154</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1126804.705055272</v>
+        <v>-1127164.788070989</v>
       </c>
       <c r="C6" t="n">
-        <v>-65455.69215909048</v>
+        <v>-65455.69215909053</v>
       </c>
       <c r="D6" t="n">
-        <v>-224876.9621569824</v>
+        <v>-224876.9621569826</v>
       </c>
       <c r="E6" t="n">
-        <v>-274442.8720500176</v>
+        <v>-274477.6099754533</v>
       </c>
       <c r="F6" t="n">
-        <v>50969.58975733747</v>
+        <v>50934.85183190188</v>
       </c>
       <c r="G6" t="n">
-        <v>50969.58975733754</v>
+        <v>50934.85183190188</v>
       </c>
       <c r="H6" t="n">
-        <v>50969.5897573376</v>
+        <v>50934.85183190176</v>
       </c>
       <c r="I6" t="n">
-        <v>50969.58975733753</v>
+        <v>50934.85183190175</v>
       </c>
       <c r="J6" t="n">
-        <v>-116635.5880526452</v>
+        <v>-116670.3259780809</v>
       </c>
       <c r="K6" t="n">
-        <v>50969.58975733764</v>
+        <v>50934.8518319018</v>
       </c>
       <c r="L6" t="n">
-        <v>-24005.50950273119</v>
+        <v>-24005.50950273145</v>
       </c>
       <c r="M6" t="n">
-        <v>-41338.84943642028</v>
+        <v>-41338.8494364206</v>
       </c>
       <c r="N6" t="n">
-        <v>43716.17849909142</v>
+        <v>43716.17849909136</v>
       </c>
       <c r="O6" t="n">
-        <v>43716.17849909137</v>
+        <v>43716.17849909136</v>
       </c>
       <c r="P6" t="n">
         <v>43716.1784990913</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203968</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203968</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000398</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>116.078171299846</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>39.20530023513797</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>115.2404312839944</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>105.9677954744205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.5255080733637</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>199.1205289358198</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>277.2697571090208</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>168.8736349018863</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>345.5834682595413</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>115.0830938326251</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39.12610256314986</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>128.2967514976661</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28333,10 +28333,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>232.1537035940586</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954396</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179087</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437246</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179087</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622651</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437246</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681233</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>364.0350380248671</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>562.710793489365</v>
+        <v>617.0987427660941</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295204</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>90.01966967204032</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121063</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394479</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992802</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394479</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402469</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992802</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
